--- a/SuppXLS/Scen_CO2.xlsx
+++ b/SuppXLS/Scen_CO2.xlsx
@@ -1104,7 +1104,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EDD6913-7AD2-488D-AE4D-04D6B804A87B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BDAD11B-9DCC-4395-B8F8-E3453667F63F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
